--- a/po_analysis_by_asin/B09885HV8C_po_data.xlsx
+++ b/po_analysis_by_asin/B09885HV8C_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:B59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,87 +452,87 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45320</v>
+        <v>44934.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>36</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45327</v>
+        <v>44941.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>51</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45334</v>
+        <v>44962.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45341</v>
+        <v>44969.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45348</v>
+        <v>44976.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45355</v>
+        <v>44983.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>48</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45362</v>
+        <v>44990.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45369</v>
+        <v>44997.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45383</v>
+        <v>45004.99999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45390</v>
+        <v>45011.99999999999</v>
       </c>
       <c r="B11" t="n">
-        <v>6</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45397</v>
+        <v>45018.99999999999</v>
       </c>
       <c r="B12" t="n">
         <v>2</v>
@@ -540,81 +540,377 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45404</v>
+        <v>45025.99999999999</v>
       </c>
       <c r="B13" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45411</v>
+        <v>45039.99999999999</v>
       </c>
       <c r="B14" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45418</v>
+        <v>45046.99999999999</v>
       </c>
       <c r="B15" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45425</v>
+        <v>45053.99999999999</v>
       </c>
       <c r="B16" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45432</v>
+        <v>45060.99999999999</v>
       </c>
       <c r="B17" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45439</v>
+        <v>45067.99999999999</v>
       </c>
       <c r="B18" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45446</v>
+        <v>45074.99999999999</v>
       </c>
       <c r="B19" t="n">
-        <v>36</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45453</v>
+        <v>45081.99999999999</v>
       </c>
       <c r="B20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45474</v>
+        <v>45088.99999999999</v>
       </c>
       <c r="B21" t="n">
-        <v>10</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45481</v>
+        <v>45095.99999999999</v>
       </c>
       <c r="B22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45102.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45116.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45123.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45130.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45137.99999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45144.99999999999</v>
+      </c>
+      <c r="B28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45151.99999999999</v>
+      </c>
+      <c r="B29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45158.99999999999</v>
+      </c>
+      <c r="B30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45179.99999999999</v>
+      </c>
+      <c r="B31" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45186.99999999999</v>
+      </c>
+      <c r="B32" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45193.99999999999</v>
+      </c>
+      <c r="B33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45200.99999999999</v>
+      </c>
+      <c r="B34" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45207.99999999999</v>
+      </c>
+      <c r="B35" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45214.99999999999</v>
+      </c>
+      <c r="B36" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45221.99999999999</v>
+      </c>
+      <c r="B37" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45228.99999999999</v>
+      </c>
+      <c r="B38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45326.99999999999</v>
+      </c>
+      <c r="B39" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45333.99999999999</v>
+      </c>
+      <c r="B40" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45340.99999999999</v>
+      </c>
+      <c r="B41" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45347.99999999999</v>
+      </c>
+      <c r="B42" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45354.99999999999</v>
+      </c>
+      <c r="B43" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>45361.99999999999</v>
+      </c>
+      <c r="B44" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>45368.99999999999</v>
+      </c>
+      <c r="B45" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>45375.99999999999</v>
+      </c>
+      <c r="B46" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45389.99999999999</v>
+      </c>
+      <c r="B47" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>45396.99999999999</v>
+      </c>
+      <c r="B48" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>45403.99999999999</v>
+      </c>
+      <c r="B49" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>45410.99999999999</v>
+      </c>
+      <c r="B50" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>45417.99999999999</v>
+      </c>
+      <c r="B51" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>45424.99999999999</v>
+      </c>
+      <c r="B52" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>45431.99999999999</v>
+      </c>
+      <c r="B53" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>45438.99999999999</v>
+      </c>
+      <c r="B54" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>45445.99999999999</v>
+      </c>
+      <c r="B55" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>45452.99999999999</v>
+      </c>
+      <c r="B56" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>45459.99999999999</v>
+      </c>
+      <c r="B57" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>45480.99999999999</v>
+      </c>
+      <c r="B58" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>45487.99999999999</v>
+      </c>
+      <c r="B59" t="n">
         <v>4</v>
       </c>
     </row>
@@ -629,7 +925,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -651,57 +947,137 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45292</v>
+        <v>44957.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>36</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45323</v>
+        <v>44985.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>72</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45352</v>
+        <v>45016.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>63</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45383</v>
+        <v>45046.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>22</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45413</v>
+        <v>45077.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>26</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45444</v>
+        <v>45107.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>38</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45474</v>
+        <v>45138.99999999999</v>
       </c>
       <c r="B8" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45169.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45199.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45230.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45322.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45351.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45382.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45412.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45443.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45473.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45504.99999999999</v>
+      </c>
+      <c r="B18" t="n">
         <v>14</v>
       </c>
     </row>

--- a/po_analysis_by_asin/B09885HV8C_po_data.xlsx
+++ b/po_analysis_by_asin/B09885HV8C_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -941,7 +942,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -1079,6 +1080,971 @@
       </c>
       <c r="B18" t="n">
         <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D67"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>44934.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>17</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-5.434380341712059</v>
+      </c>
+      <c r="D2" t="n">
+        <v>39.9656540114187</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>44941.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>16</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-6.520779616610104</v>
+      </c>
+      <c r="D3" t="n">
+        <v>40.57352259142046</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>44962.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>16</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-7.984410074319374</v>
+      </c>
+      <c r="D4" t="n">
+        <v>38.56204618248353</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>44969.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>16</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-8.502468710088205</v>
+      </c>
+      <c r="D5" t="n">
+        <v>38.42974950256683</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>44976.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>16</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-8.152367523649305</v>
+      </c>
+      <c r="D6" t="n">
+        <v>37.59337965461236</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>44983.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>16</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-6.18632902595757</v>
+      </c>
+      <c r="D7" t="n">
+        <v>38.61158886814689</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>44990.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>16</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-6.993684592086185</v>
+      </c>
+      <c r="D8" t="n">
+        <v>38.42934128973907</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>44997.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>16</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-7.140845569472248</v>
+      </c>
+      <c r="D9" t="n">
+        <v>38.61628020441611</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45004.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>16</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-6.604712947035052</v>
+      </c>
+      <c r="D10" t="n">
+        <v>36.98479628884068</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45011.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>16</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-7.119881978891114</v>
+      </c>
+      <c r="D11" t="n">
+        <v>38.43886021624522</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45018.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>15</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-8.167184794333986</v>
+      </c>
+      <c r="D12" t="n">
+        <v>38.96765513004877</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45025.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>15</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-6.116953818599085</v>
+      </c>
+      <c r="D13" t="n">
+        <v>36.07047371764916</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45039.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>15</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-8.443861413977537</v>
+      </c>
+      <c r="D14" t="n">
+        <v>38.19584721442749</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45046.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>15</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-8.229811827602493</v>
+      </c>
+      <c r="D15" t="n">
+        <v>38.65809950701187</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45053.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>15</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-7.678154916375469</v>
+      </c>
+      <c r="D16" t="n">
+        <v>39.37767174018398</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45060.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-7.798726829708551</v>
+      </c>
+      <c r="D17" t="n">
+        <v>38.08124285746646</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45067.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>15</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-7.37122730525572</v>
+      </c>
+      <c r="D18" t="n">
+        <v>36.4510705844502</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45074.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>15</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-7.574741835996788</v>
+      </c>
+      <c r="D19" t="n">
+        <v>35.74306611544311</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45081.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>15</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-8.622954103357936</v>
+      </c>
+      <c r="D20" t="n">
+        <v>38.14778195639796</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45088.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>15</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-8.843264220781728</v>
+      </c>
+      <c r="D21" t="n">
+        <v>37.49604295845713</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45095.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>14</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-8.526181887768034</v>
+      </c>
+      <c r="D22" t="n">
+        <v>35.0263765699148</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45102.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>14</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-7.831679839940293</v>
+      </c>
+      <c r="D23" t="n">
+        <v>36.32508023447402</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45116.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>14</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-9.894280621010704</v>
+      </c>
+      <c r="D24" t="n">
+        <v>35.08948563507204</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45123.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>14</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-8.050769776692624</v>
+      </c>
+      <c r="D25" t="n">
+        <v>37.1295339789205</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45130.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>14</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-8.513868214141041</v>
+      </c>
+      <c r="D26" t="n">
+        <v>36.64640228086034</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45137.99999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>14</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-9.957160571810835</v>
+      </c>
+      <c r="D27" t="n">
+        <v>37.93129638437311</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45144.99999999999</v>
+      </c>
+      <c r="B28" t="n">
+        <v>14</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-8.079176242675436</v>
+      </c>
+      <c r="D28" t="n">
+        <v>36.55671712905379</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45151.99999999999</v>
+      </c>
+      <c r="B29" t="n">
+        <v>14</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-8.817308929008792</v>
+      </c>
+      <c r="D29" t="n">
+        <v>36.73244650322795</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45158.99999999999</v>
+      </c>
+      <c r="B30" t="n">
+        <v>14</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-10.77009096133065</v>
+      </c>
+      <c r="D30" t="n">
+        <v>36.6130108013421</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45179.99999999999</v>
+      </c>
+      <c r="B31" t="n">
+        <v>13</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-9.453361955399117</v>
+      </c>
+      <c r="D31" t="n">
+        <v>35.96142723578465</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45186.99999999999</v>
+      </c>
+      <c r="B32" t="n">
+        <v>13</v>
+      </c>
+      <c r="C32" t="n">
+        <v>-11.38411814118986</v>
+      </c>
+      <c r="D32" t="n">
+        <v>35.57670639212287</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45193.99999999999</v>
+      </c>
+      <c r="B33" t="n">
+        <v>13</v>
+      </c>
+      <c r="C33" t="n">
+        <v>-10.28097704593204</v>
+      </c>
+      <c r="D33" t="n">
+        <v>35.34968323572054</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45200.99999999999</v>
+      </c>
+      <c r="B34" t="n">
+        <v>13</v>
+      </c>
+      <c r="C34" t="n">
+        <v>-9.226151845246054</v>
+      </c>
+      <c r="D34" t="n">
+        <v>36.07780704712167</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45207.99999999999</v>
+      </c>
+      <c r="B35" t="n">
+        <v>13</v>
+      </c>
+      <c r="C35" t="n">
+        <v>-9.97624937205315</v>
+      </c>
+      <c r="D35" t="n">
+        <v>35.12105690998984</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45214.99999999999</v>
+      </c>
+      <c r="B36" t="n">
+        <v>13</v>
+      </c>
+      <c r="C36" t="n">
+        <v>-11.10546736220902</v>
+      </c>
+      <c r="D36" t="n">
+        <v>35.12057887590142</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45221.99999999999</v>
+      </c>
+      <c r="B37" t="n">
+        <v>13</v>
+      </c>
+      <c r="C37" t="n">
+        <v>-9.315507103792958</v>
+      </c>
+      <c r="D37" t="n">
+        <v>36.07965701821462</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45228.99999999999</v>
+      </c>
+      <c r="B38" t="n">
+        <v>13</v>
+      </c>
+      <c r="C38" t="n">
+        <v>-10.14657482846472</v>
+      </c>
+      <c r="D38" t="n">
+        <v>35.77258994735435</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45326.99999999999</v>
+      </c>
+      <c r="B39" t="n">
+        <v>11</v>
+      </c>
+      <c r="C39" t="n">
+        <v>-10.79438324549854</v>
+      </c>
+      <c r="D39" t="n">
+        <v>34.55978089248303</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45333.99999999999</v>
+      </c>
+      <c r="B40" t="n">
+        <v>11</v>
+      </c>
+      <c r="C40" t="n">
+        <v>-12.08855409969555</v>
+      </c>
+      <c r="D40" t="n">
+        <v>32.59534241853095</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45340.99999999999</v>
+      </c>
+      <c r="B41" t="n">
+        <v>11</v>
+      </c>
+      <c r="C41" t="n">
+        <v>-10.80896579184318</v>
+      </c>
+      <c r="D41" t="n">
+        <v>34.76541640391627</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45347.99999999999</v>
+      </c>
+      <c r="B42" t="n">
+        <v>11</v>
+      </c>
+      <c r="C42" t="n">
+        <v>-11.57184338810868</v>
+      </c>
+      <c r="D42" t="n">
+        <v>34.99119204499355</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45354.99999999999</v>
+      </c>
+      <c r="B43" t="n">
+        <v>11</v>
+      </c>
+      <c r="C43" t="n">
+        <v>-11.99705045552406</v>
+      </c>
+      <c r="D43" t="n">
+        <v>33.95478675294954</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>45361.99999999999</v>
+      </c>
+      <c r="B44" t="n">
+        <v>11</v>
+      </c>
+      <c r="C44" t="n">
+        <v>-12.36064508247912</v>
+      </c>
+      <c r="D44" t="n">
+        <v>33.87504324206084</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>45368.99999999999</v>
+      </c>
+      <c r="B45" t="n">
+        <v>11</v>
+      </c>
+      <c r="C45" t="n">
+        <v>-11.7419355604552</v>
+      </c>
+      <c r="D45" t="n">
+        <v>33.62822237364513</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>45375.99999999999</v>
+      </c>
+      <c r="B46" t="n">
+        <v>11</v>
+      </c>
+      <c r="C46" t="n">
+        <v>-11.71979007518557</v>
+      </c>
+      <c r="D46" t="n">
+        <v>34.34063352995157</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45389.99999999999</v>
+      </c>
+      <c r="B47" t="n">
+        <v>11</v>
+      </c>
+      <c r="C47" t="n">
+        <v>-11.01597441730929</v>
+      </c>
+      <c r="D47" t="n">
+        <v>34.20392200529559</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>45396.99999999999</v>
+      </c>
+      <c r="B48" t="n">
+        <v>11</v>
+      </c>
+      <c r="C48" t="n">
+        <v>-10.06341609593196</v>
+      </c>
+      <c r="D48" t="n">
+        <v>33.70730768337608</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>45403.99999999999</v>
+      </c>
+      <c r="B49" t="n">
+        <v>10</v>
+      </c>
+      <c r="C49" t="n">
+        <v>-12.3314611293572</v>
+      </c>
+      <c r="D49" t="n">
+        <v>32.28794127681326</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>45410.99999999999</v>
+      </c>
+      <c r="B50" t="n">
+        <v>10</v>
+      </c>
+      <c r="C50" t="n">
+        <v>-11.16293148580633</v>
+      </c>
+      <c r="D50" t="n">
+        <v>32.64757298879076</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>45417.99999999999</v>
+      </c>
+      <c r="B51" t="n">
+        <v>10</v>
+      </c>
+      <c r="C51" t="n">
+        <v>-12.78469887518626</v>
+      </c>
+      <c r="D51" t="n">
+        <v>31.90086070830991</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>45424.99999999999</v>
+      </c>
+      <c r="B52" t="n">
+        <v>10</v>
+      </c>
+      <c r="C52" t="n">
+        <v>-13.56188409918824</v>
+      </c>
+      <c r="D52" t="n">
+        <v>34.12895106229818</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>45431.99999999999</v>
+      </c>
+      <c r="B53" t="n">
+        <v>10</v>
+      </c>
+      <c r="C53" t="n">
+        <v>-12.0063189956817</v>
+      </c>
+      <c r="D53" t="n">
+        <v>31.19357813244217</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>45438.99999999999</v>
+      </c>
+      <c r="B54" t="n">
+        <v>10</v>
+      </c>
+      <c r="C54" t="n">
+        <v>-11.38662228633172</v>
+      </c>
+      <c r="D54" t="n">
+        <v>35.03629253270461</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>45445.99999999999</v>
+      </c>
+      <c r="B55" t="n">
+        <v>10</v>
+      </c>
+      <c r="C55" t="n">
+        <v>-12.97960951076195</v>
+      </c>
+      <c r="D55" t="n">
+        <v>33.02272420448259</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>45452.99999999999</v>
+      </c>
+      <c r="B56" t="n">
+        <v>10</v>
+      </c>
+      <c r="C56" t="n">
+        <v>-13.18600566284582</v>
+      </c>
+      <c r="D56" t="n">
+        <v>33.69652481304414</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>45459.99999999999</v>
+      </c>
+      <c r="B57" t="n">
+        <v>10</v>
+      </c>
+      <c r="C57" t="n">
+        <v>-14.22563942834579</v>
+      </c>
+      <c r="D57" t="n">
+        <v>32.69659855809933</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>45480.99999999999</v>
+      </c>
+      <c r="B58" t="n">
+        <v>9</v>
+      </c>
+      <c r="C58" t="n">
+        <v>-13.85319524320592</v>
+      </c>
+      <c r="D58" t="n">
+        <v>33.44367147220205</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>45487.99999999999</v>
+      </c>
+      <c r="B59" t="n">
+        <v>9</v>
+      </c>
+      <c r="C59" t="n">
+        <v>-13.81909433214855</v>
+      </c>
+      <c r="D59" t="n">
+        <v>32.60901045323585</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>45494.99999999999</v>
+      </c>
+      <c r="B60" t="n">
+        <v>9</v>
+      </c>
+      <c r="C60" t="n">
+        <v>-13.30226059924795</v>
+      </c>
+      <c r="D60" t="n">
+        <v>31.96471394522214</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>45501.99999999999</v>
+      </c>
+      <c r="B61" t="n">
+        <v>9</v>
+      </c>
+      <c r="C61" t="n">
+        <v>-11.54115584782464</v>
+      </c>
+      <c r="D61" t="n">
+        <v>32.49007525401245</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>45508.99999999999</v>
+      </c>
+      <c r="B62" t="n">
+        <v>9</v>
+      </c>
+      <c r="C62" t="n">
+        <v>-14.67783218852563</v>
+      </c>
+      <c r="D62" t="n">
+        <v>31.5558965827442</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>45515.99999999999</v>
+      </c>
+      <c r="B63" t="n">
+        <v>9</v>
+      </c>
+      <c r="C63" t="n">
+        <v>-12.9766168092479</v>
+      </c>
+      <c r="D63" t="n">
+        <v>30.94951795252395</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>45522.99999999999</v>
+      </c>
+      <c r="B64" t="n">
+        <v>9</v>
+      </c>
+      <c r="C64" t="n">
+        <v>-12.45612923431342</v>
+      </c>
+      <c r="D64" t="n">
+        <v>30.34591257914668</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>45529.99999999999</v>
+      </c>
+      <c r="B65" t="n">
+        <v>9</v>
+      </c>
+      <c r="C65" t="n">
+        <v>-14.11886100414988</v>
+      </c>
+      <c r="D65" t="n">
+        <v>31.92096757501079</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>45536.99999999999</v>
+      </c>
+      <c r="B66" t="n">
+        <v>9</v>
+      </c>
+      <c r="C66" t="n">
+        <v>-15.48021136540036</v>
+      </c>
+      <c r="D66" t="n">
+        <v>32.61413084248758</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>45543.99999999999</v>
+      </c>
+      <c r="B67" t="n">
+        <v>9</v>
+      </c>
+      <c r="C67" t="n">
+        <v>-11.81269903312265</v>
+      </c>
+      <c r="D67" t="n">
+        <v>32.54427223229519</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B09885HV8C_po_data.xlsx
+++ b/po_analysis_by_asin/B09885HV8C_po_data.xlsx
@@ -1093,7 +1093,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D67"/>
+  <dimension ref="A1:B67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1112,16 +1112,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -1130,12 +1120,6 @@
       <c r="B2" t="n">
         <v>17</v>
       </c>
-      <c r="C2" t="n">
-        <v>-5.434380341712059</v>
-      </c>
-      <c r="D2" t="n">
-        <v>39.9656540114187</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -1144,12 +1128,6 @@
       <c r="B3" t="n">
         <v>16</v>
       </c>
-      <c r="C3" t="n">
-        <v>-6.520779616610104</v>
-      </c>
-      <c r="D3" t="n">
-        <v>40.57352259142046</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -1158,12 +1136,6 @@
       <c r="B4" t="n">
         <v>16</v>
       </c>
-      <c r="C4" t="n">
-        <v>-7.984410074319374</v>
-      </c>
-      <c r="D4" t="n">
-        <v>38.56204618248353</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -1172,12 +1144,6 @@
       <c r="B5" t="n">
         <v>16</v>
       </c>
-      <c r="C5" t="n">
-        <v>-8.502468710088205</v>
-      </c>
-      <c r="D5" t="n">
-        <v>38.42974950256683</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -1186,12 +1152,6 @@
       <c r="B6" t="n">
         <v>16</v>
       </c>
-      <c r="C6" t="n">
-        <v>-8.152367523649305</v>
-      </c>
-      <c r="D6" t="n">
-        <v>37.59337965461236</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -1200,12 +1160,6 @@
       <c r="B7" t="n">
         <v>16</v>
       </c>
-      <c r="C7" t="n">
-        <v>-6.18632902595757</v>
-      </c>
-      <c r="D7" t="n">
-        <v>38.61158886814689</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -1214,12 +1168,6 @@
       <c r="B8" t="n">
         <v>16</v>
       </c>
-      <c r="C8" t="n">
-        <v>-6.993684592086185</v>
-      </c>
-      <c r="D8" t="n">
-        <v>38.42934128973907</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -1228,12 +1176,6 @@
       <c r="B9" t="n">
         <v>16</v>
       </c>
-      <c r="C9" t="n">
-        <v>-7.140845569472248</v>
-      </c>
-      <c r="D9" t="n">
-        <v>38.61628020441611</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -1242,12 +1184,6 @@
       <c r="B10" t="n">
         <v>16</v>
       </c>
-      <c r="C10" t="n">
-        <v>-6.604712947035052</v>
-      </c>
-      <c r="D10" t="n">
-        <v>36.98479628884068</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -1256,12 +1192,6 @@
       <c r="B11" t="n">
         <v>16</v>
       </c>
-      <c r="C11" t="n">
-        <v>-7.119881978891114</v>
-      </c>
-      <c r="D11" t="n">
-        <v>38.43886021624522</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -1270,12 +1200,6 @@
       <c r="B12" t="n">
         <v>15</v>
       </c>
-      <c r="C12" t="n">
-        <v>-8.167184794333986</v>
-      </c>
-      <c r="D12" t="n">
-        <v>38.96765513004877</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -1284,12 +1208,6 @@
       <c r="B13" t="n">
         <v>15</v>
       </c>
-      <c r="C13" t="n">
-        <v>-6.116953818599085</v>
-      </c>
-      <c r="D13" t="n">
-        <v>36.07047371764916</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -1298,12 +1216,6 @@
       <c r="B14" t="n">
         <v>15</v>
       </c>
-      <c r="C14" t="n">
-        <v>-8.443861413977537</v>
-      </c>
-      <c r="D14" t="n">
-        <v>38.19584721442749</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -1312,12 +1224,6 @@
       <c r="B15" t="n">
         <v>15</v>
       </c>
-      <c r="C15" t="n">
-        <v>-8.229811827602493</v>
-      </c>
-      <c r="D15" t="n">
-        <v>38.65809950701187</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1326,12 +1232,6 @@
       <c r="B16" t="n">
         <v>15</v>
       </c>
-      <c r="C16" t="n">
-        <v>-7.678154916375469</v>
-      </c>
-      <c r="D16" t="n">
-        <v>39.37767174018398</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1340,12 +1240,6 @@
       <c r="B17" t="n">
         <v>15</v>
       </c>
-      <c r="C17" t="n">
-        <v>-7.798726829708551</v>
-      </c>
-      <c r="D17" t="n">
-        <v>38.08124285746646</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1354,12 +1248,6 @@
       <c r="B18" t="n">
         <v>15</v>
       </c>
-      <c r="C18" t="n">
-        <v>-7.37122730525572</v>
-      </c>
-      <c r="D18" t="n">
-        <v>36.4510705844502</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1368,12 +1256,6 @@
       <c r="B19" t="n">
         <v>15</v>
       </c>
-      <c r="C19" t="n">
-        <v>-7.574741835996788</v>
-      </c>
-      <c r="D19" t="n">
-        <v>35.74306611544311</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1382,12 +1264,6 @@
       <c r="B20" t="n">
         <v>15</v>
       </c>
-      <c r="C20" t="n">
-        <v>-8.622954103357936</v>
-      </c>
-      <c r="D20" t="n">
-        <v>38.14778195639796</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1396,12 +1272,6 @@
       <c r="B21" t="n">
         <v>15</v>
       </c>
-      <c r="C21" t="n">
-        <v>-8.843264220781728</v>
-      </c>
-      <c r="D21" t="n">
-        <v>37.49604295845713</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1410,12 +1280,6 @@
       <c r="B22" t="n">
         <v>14</v>
       </c>
-      <c r="C22" t="n">
-        <v>-8.526181887768034</v>
-      </c>
-      <c r="D22" t="n">
-        <v>35.0263765699148</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1424,12 +1288,6 @@
       <c r="B23" t="n">
         <v>14</v>
       </c>
-      <c r="C23" t="n">
-        <v>-7.831679839940293</v>
-      </c>
-      <c r="D23" t="n">
-        <v>36.32508023447402</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1438,12 +1296,6 @@
       <c r="B24" t="n">
         <v>14</v>
       </c>
-      <c r="C24" t="n">
-        <v>-9.894280621010704</v>
-      </c>
-      <c r="D24" t="n">
-        <v>35.08948563507204</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1452,12 +1304,6 @@
       <c r="B25" t="n">
         <v>14</v>
       </c>
-      <c r="C25" t="n">
-        <v>-8.050769776692624</v>
-      </c>
-      <c r="D25" t="n">
-        <v>37.1295339789205</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1466,12 +1312,6 @@
       <c r="B26" t="n">
         <v>14</v>
       </c>
-      <c r="C26" t="n">
-        <v>-8.513868214141041</v>
-      </c>
-      <c r="D26" t="n">
-        <v>36.64640228086034</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1480,12 +1320,6 @@
       <c r="B27" t="n">
         <v>14</v>
       </c>
-      <c r="C27" t="n">
-        <v>-9.957160571810835</v>
-      </c>
-      <c r="D27" t="n">
-        <v>37.93129638437311</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1494,12 +1328,6 @@
       <c r="B28" t="n">
         <v>14</v>
       </c>
-      <c r="C28" t="n">
-        <v>-8.079176242675436</v>
-      </c>
-      <c r="D28" t="n">
-        <v>36.55671712905379</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -1508,12 +1336,6 @@
       <c r="B29" t="n">
         <v>14</v>
       </c>
-      <c r="C29" t="n">
-        <v>-8.817308929008792</v>
-      </c>
-      <c r="D29" t="n">
-        <v>36.73244650322795</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -1522,12 +1344,6 @@
       <c r="B30" t="n">
         <v>14</v>
       </c>
-      <c r="C30" t="n">
-        <v>-10.77009096133065</v>
-      </c>
-      <c r="D30" t="n">
-        <v>36.6130108013421</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -1536,12 +1352,6 @@
       <c r="B31" t="n">
         <v>13</v>
       </c>
-      <c r="C31" t="n">
-        <v>-9.453361955399117</v>
-      </c>
-      <c r="D31" t="n">
-        <v>35.96142723578465</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -1550,12 +1360,6 @@
       <c r="B32" t="n">
         <v>13</v>
       </c>
-      <c r="C32" t="n">
-        <v>-11.38411814118986</v>
-      </c>
-      <c r="D32" t="n">
-        <v>35.57670639212287</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -1564,12 +1368,6 @@
       <c r="B33" t="n">
         <v>13</v>
       </c>
-      <c r="C33" t="n">
-        <v>-10.28097704593204</v>
-      </c>
-      <c r="D33" t="n">
-        <v>35.34968323572054</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -1578,12 +1376,6 @@
       <c r="B34" t="n">
         <v>13</v>
       </c>
-      <c r="C34" t="n">
-        <v>-9.226151845246054</v>
-      </c>
-      <c r="D34" t="n">
-        <v>36.07780704712167</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
@@ -1592,12 +1384,6 @@
       <c r="B35" t="n">
         <v>13</v>
       </c>
-      <c r="C35" t="n">
-        <v>-9.97624937205315</v>
-      </c>
-      <c r="D35" t="n">
-        <v>35.12105690998984</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
@@ -1606,12 +1392,6 @@
       <c r="B36" t="n">
         <v>13</v>
       </c>
-      <c r="C36" t="n">
-        <v>-11.10546736220902</v>
-      </c>
-      <c r="D36" t="n">
-        <v>35.12057887590142</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
@@ -1620,12 +1400,6 @@
       <c r="B37" t="n">
         <v>13</v>
       </c>
-      <c r="C37" t="n">
-        <v>-9.315507103792958</v>
-      </c>
-      <c r="D37" t="n">
-        <v>36.07965701821462</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
@@ -1634,12 +1408,6 @@
       <c r="B38" t="n">
         <v>13</v>
       </c>
-      <c r="C38" t="n">
-        <v>-10.14657482846472</v>
-      </c>
-      <c r="D38" t="n">
-        <v>35.77258994735435</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
@@ -1648,12 +1416,6 @@
       <c r="B39" t="n">
         <v>11</v>
       </c>
-      <c r="C39" t="n">
-        <v>-10.79438324549854</v>
-      </c>
-      <c r="D39" t="n">
-        <v>34.55978089248303</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
@@ -1662,12 +1424,6 @@
       <c r="B40" t="n">
         <v>11</v>
       </c>
-      <c r="C40" t="n">
-        <v>-12.08855409969555</v>
-      </c>
-      <c r="D40" t="n">
-        <v>32.59534241853095</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
@@ -1676,12 +1432,6 @@
       <c r="B41" t="n">
         <v>11</v>
       </c>
-      <c r="C41" t="n">
-        <v>-10.80896579184318</v>
-      </c>
-      <c r="D41" t="n">
-        <v>34.76541640391627</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
@@ -1690,12 +1440,6 @@
       <c r="B42" t="n">
         <v>11</v>
       </c>
-      <c r="C42" t="n">
-        <v>-11.57184338810868</v>
-      </c>
-      <c r="D42" t="n">
-        <v>34.99119204499355</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
@@ -1704,12 +1448,6 @@
       <c r="B43" t="n">
         <v>11</v>
       </c>
-      <c r="C43" t="n">
-        <v>-11.99705045552406</v>
-      </c>
-      <c r="D43" t="n">
-        <v>33.95478675294954</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
@@ -1718,12 +1456,6 @@
       <c r="B44" t="n">
         <v>11</v>
       </c>
-      <c r="C44" t="n">
-        <v>-12.36064508247912</v>
-      </c>
-      <c r="D44" t="n">
-        <v>33.87504324206084</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
@@ -1732,12 +1464,6 @@
       <c r="B45" t="n">
         <v>11</v>
       </c>
-      <c r="C45" t="n">
-        <v>-11.7419355604552</v>
-      </c>
-      <c r="D45" t="n">
-        <v>33.62822237364513</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
@@ -1746,12 +1472,6 @@
       <c r="B46" t="n">
         <v>11</v>
       </c>
-      <c r="C46" t="n">
-        <v>-11.71979007518557</v>
-      </c>
-      <c r="D46" t="n">
-        <v>34.34063352995157</v>
-      </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
@@ -1760,12 +1480,6 @@
       <c r="B47" t="n">
         <v>11</v>
       </c>
-      <c r="C47" t="n">
-        <v>-11.01597441730929</v>
-      </c>
-      <c r="D47" t="n">
-        <v>34.20392200529559</v>
-      </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
@@ -1774,12 +1488,6 @@
       <c r="B48" t="n">
         <v>11</v>
       </c>
-      <c r="C48" t="n">
-        <v>-10.06341609593196</v>
-      </c>
-      <c r="D48" t="n">
-        <v>33.70730768337608</v>
-      </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
@@ -1788,12 +1496,6 @@
       <c r="B49" t="n">
         <v>10</v>
       </c>
-      <c r="C49" t="n">
-        <v>-12.3314611293572</v>
-      </c>
-      <c r="D49" t="n">
-        <v>32.28794127681326</v>
-      </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
@@ -1802,12 +1504,6 @@
       <c r="B50" t="n">
         <v>10</v>
       </c>
-      <c r="C50" t="n">
-        <v>-11.16293148580633</v>
-      </c>
-      <c r="D50" t="n">
-        <v>32.64757298879076</v>
-      </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
@@ -1816,12 +1512,6 @@
       <c r="B51" t="n">
         <v>10</v>
       </c>
-      <c r="C51" t="n">
-        <v>-12.78469887518626</v>
-      </c>
-      <c r="D51" t="n">
-        <v>31.90086070830991</v>
-      </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
@@ -1830,12 +1520,6 @@
       <c r="B52" t="n">
         <v>10</v>
       </c>
-      <c r="C52" t="n">
-        <v>-13.56188409918824</v>
-      </c>
-      <c r="D52" t="n">
-        <v>34.12895106229818</v>
-      </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
@@ -1844,12 +1528,6 @@
       <c r="B53" t="n">
         <v>10</v>
       </c>
-      <c r="C53" t="n">
-        <v>-12.0063189956817</v>
-      </c>
-      <c r="D53" t="n">
-        <v>31.19357813244217</v>
-      </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
@@ -1858,12 +1536,6 @@
       <c r="B54" t="n">
         <v>10</v>
       </c>
-      <c r="C54" t="n">
-        <v>-11.38662228633172</v>
-      </c>
-      <c r="D54" t="n">
-        <v>35.03629253270461</v>
-      </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
@@ -1872,12 +1544,6 @@
       <c r="B55" t="n">
         <v>10</v>
       </c>
-      <c r="C55" t="n">
-        <v>-12.97960951076195</v>
-      </c>
-      <c r="D55" t="n">
-        <v>33.02272420448259</v>
-      </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
@@ -1886,12 +1552,6 @@
       <c r="B56" t="n">
         <v>10</v>
       </c>
-      <c r="C56" t="n">
-        <v>-13.18600566284582</v>
-      </c>
-      <c r="D56" t="n">
-        <v>33.69652481304414</v>
-      </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
@@ -1900,12 +1560,6 @@
       <c r="B57" t="n">
         <v>10</v>
       </c>
-      <c r="C57" t="n">
-        <v>-14.22563942834579</v>
-      </c>
-      <c r="D57" t="n">
-        <v>32.69659855809933</v>
-      </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
@@ -1914,12 +1568,6 @@
       <c r="B58" t="n">
         <v>9</v>
       </c>
-      <c r="C58" t="n">
-        <v>-13.85319524320592</v>
-      </c>
-      <c r="D58" t="n">
-        <v>33.44367147220205</v>
-      </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
@@ -1928,12 +1576,6 @@
       <c r="B59" t="n">
         <v>9</v>
       </c>
-      <c r="C59" t="n">
-        <v>-13.81909433214855</v>
-      </c>
-      <c r="D59" t="n">
-        <v>32.60901045323585</v>
-      </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
@@ -1942,12 +1584,6 @@
       <c r="B60" t="n">
         <v>9</v>
       </c>
-      <c r="C60" t="n">
-        <v>-13.30226059924795</v>
-      </c>
-      <c r="D60" t="n">
-        <v>31.96471394522214</v>
-      </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
@@ -1956,12 +1592,6 @@
       <c r="B61" t="n">
         <v>9</v>
       </c>
-      <c r="C61" t="n">
-        <v>-11.54115584782464</v>
-      </c>
-      <c r="D61" t="n">
-        <v>32.49007525401245</v>
-      </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
@@ -1970,12 +1600,6 @@
       <c r="B62" t="n">
         <v>9</v>
       </c>
-      <c r="C62" t="n">
-        <v>-14.67783218852563</v>
-      </c>
-      <c r="D62" t="n">
-        <v>31.5558965827442</v>
-      </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
@@ -1984,12 +1608,6 @@
       <c r="B63" t="n">
         <v>9</v>
       </c>
-      <c r="C63" t="n">
-        <v>-12.9766168092479</v>
-      </c>
-      <c r="D63" t="n">
-        <v>30.94951795252395</v>
-      </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
@@ -1998,12 +1616,6 @@
       <c r="B64" t="n">
         <v>9</v>
       </c>
-      <c r="C64" t="n">
-        <v>-12.45612923431342</v>
-      </c>
-      <c r="D64" t="n">
-        <v>30.34591257914668</v>
-      </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
@@ -2012,12 +1624,6 @@
       <c r="B65" t="n">
         <v>9</v>
       </c>
-      <c r="C65" t="n">
-        <v>-14.11886100414988</v>
-      </c>
-      <c r="D65" t="n">
-        <v>31.92096757501079</v>
-      </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
@@ -2026,12 +1632,6 @@
       <c r="B66" t="n">
         <v>9</v>
       </c>
-      <c r="C66" t="n">
-        <v>-15.48021136540036</v>
-      </c>
-      <c r="D66" t="n">
-        <v>32.61413084248758</v>
-      </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
@@ -2039,12 +1639,6 @@
       </c>
       <c r="B67" t="n">
         <v>9</v>
-      </c>
-      <c r="C67" t="n">
-        <v>-11.81269903312265</v>
-      </c>
-      <c r="D67" t="n">
-        <v>32.54427223229519</v>
       </c>
     </row>
   </sheetData>
